--- a/gokceeee/evidence.xlsx
+++ b/gokceeee/evidence.xlsx
@@ -1,26 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omercanyenigun/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B024901-867A-344D-A79A-14D5B6661F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="3800" windowWidth="24580" windowHeight="19120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="A1" sheetId="2" r:id="rId2"/>
+    <sheet name="A2" sheetId="3" r:id="rId3"/>
+    <sheet name="A3" sheetId="4" r:id="rId4"/>
+    <sheet name="A4" sheetId="5" r:id="rId5"/>
+    <sheet name="A5" sheetId="6" r:id="rId6"/>
+    <sheet name="A6" sheetId="7" r:id="rId7"/>
+    <sheet name="A7" sheetId="8" r:id="rId8"/>
+    <sheet name="A8" sheetId="9" r:id="rId9"/>
+    <sheet name="A9" sheetId="10" r:id="rId10"/>
+    <sheet name="A10" sheetId="11" r:id="rId11"/>
+    <sheet name="A11" sheetId="12" r:id="rId12"/>
+    <sheet name="A12" sheetId="13" r:id="rId13"/>
+    <sheet name="A13" sheetId="14" r:id="rId14"/>
+    <sheet name="A14" sheetId="15" r:id="rId15"/>
+    <sheet name="A15" sheetId="16" r:id="rId16"/>
+    <sheet name="A16" sheetId="17" r:id="rId17"/>
+    <sheet name="A17" sheetId="18" r:id="rId18"/>
+    <sheet name="A18" sheetId="19" r:id="rId19"/>
+    <sheet name="A19" sheetId="20" r:id="rId20"/>
+    <sheet name="A20" sheetId="21" r:id="rId21"/>
+    <sheet name="B1" sheetId="22" r:id="rId22"/>
+    <sheet name="B2" sheetId="23" r:id="rId23"/>
+    <sheet name="B5" sheetId="24" r:id="rId24"/>
+    <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>TeamName</t>
   </si>
@@ -49,29 +68,269 @@
     <t>Gokcee</t>
   </si>
   <si>
+    <t>iaa1mc6yx0gl727je57wwx7tc8eusl93d77yqytv02</t>
+  </si>
+  <si>
+    <t>stars1mc6yx0gl727je57wwx7tc8eusl93d77yp6uqx2</t>
+  </si>
+  <si>
+    <t>juno1mc6yx0gl727je57wwx7tc8eusl93d77yr5gx28</t>
+  </si>
+  <si>
+    <t>uptick1a37x00g7pya7mafx2m0l3srga40av2su3sdwgt</t>
+  </si>
+  <si>
+    <t>omniflix1mc6yx0gl727je57wwx7tc8eusl93d77ygc6y69</t>
+  </si>
+  <si>
     <t>gokcee#6816</t>
   </si>
   <si>
-    <t>iaa1mc6yx0gl727je57wwx7tc8eusl93d77yqytv02</t>
-  </si>
-  <si>
-    <t>stars1mc6yx0gl727je57wwx7tc8eusl93d77yp6uqx2</t>
-  </si>
-  <si>
-    <t>juno1mc6yx0gl727je57wwx7tc8eusl93d77yr5gx28</t>
-  </si>
-  <si>
-    <t>uptick1a37x00g7pya7mafx2m0l3srga40av2su3sdwgt</t>
-  </si>
-  <si>
-    <t>omniflix1mc6yx0gl727je57wwx7tc8eusl93d77ygc6y69</t>
+    <t>TxHash</t>
+  </si>
+  <si>
+    <t>ClassID</t>
+  </si>
+  <si>
+    <t>C3AB15A6E2236CF2631988C3A1413A04B5FEACD801C201B534FB4E6AB047013D</t>
+  </si>
+  <si>
+    <t>gokce</t>
+  </si>
+  <si>
+    <t>NFTID</t>
+  </si>
+  <si>
+    <t>80583A37969749DFD317837067DA8C2AE392DD73131F02AD411DD4E0E8131DB0</t>
+  </si>
+  <si>
+    <t>gkc1</t>
+  </si>
+  <si>
+    <t>3B2542074DD47EA762B41EADEC925BB21809A7A2B7CBBB2051075294B9993616</t>
+  </si>
+  <si>
+    <t>gkc3</t>
+  </si>
+  <si>
+    <t>9693F488B32D70423C1A5CC67E44F7FB53462F4B46BA1582AF272439329B65FF</t>
+  </si>
+  <si>
+    <t>gkc4</t>
+  </si>
+  <si>
+    <t>6023373AABB2281CA4BF4DBE25921A485BF20D7FF93C8F52BFE78CC9763D3C7D</t>
+  </si>
+  <si>
+    <t>gkc5</t>
+  </si>
+  <si>
+    <t>864C5E80CD04E06BE53EBE9ACE27053592B8F70A40CA4348B504C9307138A2D8</t>
+  </si>
+  <si>
+    <t>gkc6</t>
+  </si>
+  <si>
+    <t>5A318096CE241FC6109B0E19796614336671E3E0A818959C7090D555821A1E61</t>
+  </si>
+  <si>
+    <t>gkc7</t>
+  </si>
+  <si>
+    <t>ChainID</t>
+  </si>
+  <si>
+    <t>7234E58993404652AF20D3F468260E38083D01DA12E61D638849BA64FA30FCFF</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>AC56808E928C8F5EAA1CA8B44F0EFC91A425792F62520AAAE072E25FE8EAB909</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>2200CCCE668070A81EBC2D2D25FED96B2E2762BC54717B0A8B4AE561EB9EEC5E</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/gokce</t>
+  </si>
+  <si>
+    <t>C8B73753D12BBC8B42216D5974833151B71C34DF9B1E672B9E6A6540375D7D40</t>
+  </si>
+  <si>
+    <t>ibc/901EE2917F20B6E544216DAF518161B965EF512DDD560268DEED4F526FB90D63</t>
+  </si>
+  <si>
+    <t>ibc/2A39DBB9B7C790ECB3EE1E71C146E48877E0D24B881514E7250E1DF1DA1EAB8F</t>
+  </si>
+  <si>
+    <t>ibc/CD8CCD8DF0D4D9515ED4455E5783CADF4D204C0A8F81A09A2DAC2633CE14C595</t>
+  </si>
+  <si>
+    <t>gkc23</t>
+  </si>
+  <si>
+    <t>ibc/260D8605B92C8A33526B7BFA6CAEEB5ED6C3FB332E28A8FE6E28395B37BBBD62</t>
+  </si>
+  <si>
+    <t>gkc11</t>
+  </si>
+  <si>
+    <t>ibc/3A95976E0AB41F48F48671F4190EB234E1B6025B6F47FEEA89FF1EE712D5134A</t>
+  </si>
+  <si>
+    <t>gkc12</t>
+  </si>
+  <si>
+    <t>ibc/3114FE088E8003F2B67942709404165107A87AD3C1C0FAF62D8297DDF6AE1376</t>
+  </si>
+  <si>
+    <t>gkc13</t>
+  </si>
+  <si>
+    <t>ibc/93E17079B36A83DD90F3AFBF9F94DC3E896B11BCFC76219CA2596B1C8E379519</t>
+  </si>
+  <si>
+    <t>gkc14</t>
+  </si>
+  <si>
+    <t>39F895C044AABB254AF027094E0E4933608A7609F2CBFCF3ED295013096AACD1</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>29606E37C1A41E68BE71F9385EA7177B62A395BC87E9544D155B104393D23ACC</t>
+  </si>
+  <si>
+    <t>3DBDE23E8249E113B8D96C14D79E57FBCED193C4B0682C5EBCD91D0240C6EBD6</t>
+  </si>
+  <si>
+    <t>DAB758B8EC3B9AAC9BEA1D767827AE6B2E37FE28EAD1BCCAA614861720D5A92F</t>
+  </si>
+  <si>
+    <t>378CAC94B708F6B5AD592A94E2E6219DFBFE4522123380AFDA4CF7AE2BE633CE</t>
+  </si>
+  <si>
+    <t>75454B00A2BE0261B895415F663892E7A423BF2A16D961801AB7EC081EC8EEA4</t>
+  </si>
+  <si>
+    <t>ABB657E8308F95F9D24B5D8B0B2D8F420C9BF11AD951C46835009265FAE385EC</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>7AD8C990FA0B70C5F09313AE4ACE2AF2860EE0D74418A033C56CCCFE560178AC</t>
+  </si>
+  <si>
+    <t>657DEFBDF254DC52FACE1F912042EE92FD4837EEFB98D63F5DD9FB36561753CA</t>
+  </si>
+  <si>
+    <t>425E31A19F99D2DFDAFE5798414D172A39A81D584A991A7817A13D5FA1E812DE</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>C1C56B0FD032E761C6A740B2A35B27EE7DBD5641372DD53C17C03A462F5C6458</t>
+  </si>
+  <si>
+    <t>42EE920B0718769EE5F3559092034D453B6C164EA7530F95DCA682D6DC8102BE</t>
+  </si>
+  <si>
+    <t>178AF5717521D4D344B3817BE0CC40E24AA1C6CFC8B6EA65CA56AF97F079289A</t>
+  </si>
+  <si>
+    <t>9DB1A56054F6B3BCF57941D4BFF2AFDB96B3F4F9C41DF7222E4D02095EFFED1F</t>
+  </si>
+  <si>
+    <t>F198211EAFA4B79D40FFD16857FFE06B463D47224F8F245E24D6AC9D6432C19F</t>
+  </si>
+  <si>
+    <t>31E6C512BD0192E1C21EC9816B76F57524C17AE5CAB0F9A0AC92722CCBD0A1D9</t>
+  </si>
+  <si>
+    <t>B0489188E4677AA5F73140A16323687B3EC4B89EA5CC7F3AF3F9E726EAD9180C</t>
+  </si>
+  <si>
+    <t>2044AC7329C0A9A5621C6843B7ACEAFFF8143658DE7FAACD7610031D313DC19D</t>
+  </si>
+  <si>
+    <t>4A97903F63563AED2AB26D58D94A8D0CEA71DAF64C216E9ED937F1A21F3564B3</t>
+  </si>
+  <si>
+    <t>065F239A46B44C3C63881D84D8E882D1B26AD4A7B6BEF18019CA52FB009CEE89</t>
+  </si>
+  <si>
+    <t>B2CE84F51533779D382277B9B09D7D9A05A7FC09D8A7D8A03CFFAD1886B3975F</t>
+  </si>
+  <si>
+    <t>352D2CA537917C7BC12E48A39FF85ECDB3AE825B62DDED3C8DF13D0B78F72CC7</t>
+  </si>
+  <si>
+    <t>5EE71C0A6CC4ED65570D913C801FF7692B3009FB2974CA5B440246B87BDFA60D</t>
+  </si>
+  <si>
+    <t>31286BD4AAD7EBFDFDB2BABB4089E2D95A225268E920B8904AF52436DF10F2C0</t>
+  </si>
+  <si>
+    <t>173FAC48A9C1A35047FF228F791DC4104D45AF288557BB592AC69165C0C49BD4</t>
+  </si>
+  <si>
+    <t>4D7ACEE73791A931A6CFDD085DB06CF391CE88EE0FA056AC968EDE4D107F6F77</t>
+  </si>
+  <si>
+    <t>8DEA2B29661E341D1F44F9533E6FFCBE8988BF0E22DE8D700A411407D53BAB57</t>
+  </si>
+  <si>
+    <t>7016D7B2B8FD21F66FA8A0C6B0C4855F3ED41A5DD2DFD8C24161C4EE9111B80D</t>
+  </si>
+  <si>
+    <t>F4DB04D30803F8FBA666E6C789122C0048C3DC1F361C1F0EA859F81B6C3245C3</t>
+  </si>
+  <si>
+    <t>455520EEC284627E3F98CB5BE4DA9BC5D128536065D09CE59AC7C0FCDC5BA2D0</t>
+  </si>
+  <si>
+    <t>36D40484327B93603A027F4B4B1CDDAAADAA008E44C36DCE4F4A89541D89BA50</t>
+  </si>
+  <si>
+    <t>0931879064693B25BF56E6C15B734CECA4AFC67DA1E9CD1F3D5CA36F445D8329</t>
+  </si>
+  <si>
+    <t>A4603F05F54742773111E30FAF2E5D18190856539363B62271812FDF510200B8</t>
+  </si>
+  <si>
+    <t>8A082CAFA6C2ACA8A817D810D797536BAB68FBF030C3E08FF6A2079D68B2953C</t>
+  </si>
+  <si>
+    <t>D48FA751D9460E21D78BF1FB48AEEE87EDADC6EFF7383BFB9BA03F1FB8816E99</t>
+  </si>
+  <si>
+    <t>BA0EDDFD6C0779B98AB539492A25FE163B45BA9FDD15DC86EEF82D6B570E85AD</t>
+  </si>
+  <si>
+    <t>The first Interchain NFT-Transfer TxHash</t>
+  </si>
+  <si>
+    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -84,8 +343,176 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +525,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,22 +720,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -195,9 +1101,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -455,85 +1358,1356 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.6190476190476" customWidth="1"/>
+    <col min="2" max="2" width="14.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="17.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="16.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.1142857142857" customWidth="1"/>
+    <col min="6" max="6" width="17.7428571428571" customWidth="1"/>
+    <col min="7" max="7" width="14.6190476190476" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="16.4" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="5:6">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" ht="14.25" spans="5:6">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="47.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="3:4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="5:5">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="5:6">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="5:6">
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="8" ht="15" spans="5:6">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" ht="14.25" spans="5:6">
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.8857142857143" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.2571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14.3809523809524" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gokceeee/evidence.xlsx
+++ b/gokceeee/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="6" activeTab="20"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -143,25 +143,25 @@
     <t>7234E58993404652AF20D3F468260E38083D01DA12E61D638849BA64FA30FCFF</t>
   </si>
   <si>
+    <t>stars1wd04zag5yqh2af5200gh2lyuc8pvcn078rwj2c4vj4a847qe74fqatvpr7</t>
+  </si>
+  <si>
     <t>elgafar-1</t>
   </si>
   <si>
     <t>AC56808E928C8F5EAA1CA8B44F0EFC91A425792F62520AAAE072E25FE8EAB909</t>
   </si>
   <si>
+    <t>ibc/901EE2917F20B6E544216DAF518161B965EF512DDD560268DEED4F526FB90D63</t>
+  </si>
+  <si>
     <t>uptick_7000-2</t>
   </si>
   <si>
     <t>2200CCCE668070A81EBC2D2D25FED96B2E2762BC54717B0A8B4AE561EB9EEC5E</t>
   </si>
   <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/gokce</t>
-  </si>
-  <si>
     <t>C8B73753D12BBC8B42216D5974833151B71C34DF9B1E672B9E6A6540375D7D40</t>
-  </si>
-  <si>
-    <t>ibc/901EE2917F20B6E544216DAF518161B965EF512DDD560268DEED4F526FB90D63</t>
   </si>
   <si>
     <t>ibc/2A39DBB9B7C790ECB3EE1E71C146E48877E0D24B881514E7250E1DF1DA1EAB8F</t>
@@ -325,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -356,6 +356,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -364,39 +376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +406,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -431,22 +428,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,24 +483,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,14 +497,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -505,8 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,19 +527,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,31 +647,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,127 +683,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,26 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -765,6 +745,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -776,6 +765,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,156 +818,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,7 +1621,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1682,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1751,7 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1934,7 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2071,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2101,7 +2101,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2392,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2421,13 +2421,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15" spans="5:6">
@@ -2450,8 +2450,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="3:4">
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2551,16 +2551,16 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
@@ -2611,16 +2611,16 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">

--- a/gokceeee/evidence.xlsx
+++ b/gokceeee/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12375" tabRatio="500" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>TeamName</t>
   </si>
@@ -92,18 +92,21 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>C3AB15A6E2236CF2631988C3A1413A04B5FEACD801C201B534FB4E6AB047013D</t>
+    <t>173CC074669DAED6CD6DACAC190982EDDF15BD60146C13DB31911B8253D5B333</t>
+  </si>
+  <si>
+    <t>gokcedit</t>
+  </si>
+  <si>
+    <t>NFTID</t>
+  </si>
+  <si>
+    <t>80583A37969749DFD317837067DA8C2AE392DD73131F02AD411DD4E0E8131DB0</t>
   </si>
   <si>
     <t>gokce</t>
   </si>
   <si>
-    <t>NFTID</t>
-  </si>
-  <si>
-    <t>80583A37969749DFD317837067DA8C2AE392DD73131F02AD411DD4E0E8131DB0</t>
-  </si>
-  <si>
     <t>gkc1</t>
   </si>
   <si>
@@ -197,61 +200,61 @@
     <t>gkc14</t>
   </si>
   <si>
-    <t>39F895C044AABB254AF027094E0E4933608A7609F2CBFCF3ED295013096AACD1</t>
+    <t>ABC10CF37FEF8FF9690314F515AB09BFC717A39657461B91CA8E5C50972846AC</t>
   </si>
   <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>29606E37C1A41E68BE71F9385EA7177B62A395BC87E9544D155B104393D23ACC</t>
-  </si>
-  <si>
-    <t>3DBDE23E8249E113B8D96C14D79E57FBCED193C4B0682C5EBCD91D0240C6EBD6</t>
-  </si>
-  <si>
-    <t>DAB758B8EC3B9AAC9BEA1D767827AE6B2E37FE28EAD1BCCAA614861720D5A92F</t>
-  </si>
-  <si>
-    <t>378CAC94B708F6B5AD592A94E2E6219DFBFE4522123380AFDA4CF7AE2BE633CE</t>
-  </si>
-  <si>
-    <t>75454B00A2BE0261B895415F663892E7A423BF2A16D961801AB7EC081EC8EEA4</t>
-  </si>
-  <si>
-    <t>ABB657E8308F95F9D24B5D8B0B2D8F420C9BF11AD951C46835009265FAE385EC</t>
+    <t>3E6646C51612D8409BB1EE0E3180D592ABBF5744C96A8739ECD2715C70FD4028</t>
+  </si>
+  <si>
+    <t>8F1EBFA473F4FF9E4EC0A716A9EB7AA99DEAC88EECEF09AF7813230811B8E225</t>
+  </si>
+  <si>
+    <t>01CB8D3EBC7028B98EADECDFE5B852203A1BDDC550DF373613CBAF94269778E9</t>
+  </si>
+  <si>
+    <t>2A48871EBFA177F10D0BE3F64D81439AFFEE70CF1723CC3350AC5F9975AFCE56</t>
+  </si>
+  <si>
+    <t>CDF5F28052FFA7BDA49F2D8157C057FFB5BF365C72633986391D793AB0931168</t>
+  </si>
+  <si>
+    <t>BE9B19C408966858F2166F295B8829D3AFFE5A1D6CFA45B431EE2AFA3D6BB1AF</t>
   </si>
   <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
-    <t>7AD8C990FA0B70C5F09313AE4ACE2AF2860EE0D74418A033C56CCCFE560178AC</t>
-  </si>
-  <si>
-    <t>657DEFBDF254DC52FACE1F912042EE92FD4837EEFB98D63F5DD9FB36561753CA</t>
-  </si>
-  <si>
-    <t>425E31A19F99D2DFDAFE5798414D172A39A81D584A991A7817A13D5FA1E812DE</t>
+    <t>87F0BC60340BED4067E54D996DF3737CAAA93E30EDA8F26B70643226D718E7FE</t>
+  </si>
+  <si>
+    <t>228268C5705B0E8D89096B63740BC0C244E2FF82A9765481883BB6BC8A966B46</t>
+  </si>
+  <si>
+    <t>A11C40885397833572332C397D59E1982ED7F4A288A83940EE5308B27A47E732</t>
   </si>
   <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>C1C56B0FD032E761C6A740B2A35B27EE7DBD5641372DD53C17C03A462F5C6458</t>
-  </si>
-  <si>
-    <t>42EE920B0718769EE5F3559092034D453B6C164EA7530F95DCA682D6DC8102BE</t>
-  </si>
-  <si>
-    <t>178AF5717521D4D344B3817BE0CC40E24AA1C6CFC8B6EA65CA56AF97F079289A</t>
-  </si>
-  <si>
-    <t>9DB1A56054F6B3BCF57941D4BFF2AFDB96B3F4F9C41DF7222E4D02095EFFED1F</t>
-  </si>
-  <si>
-    <t>F198211EAFA4B79D40FFD16857FFE06B463D47224F8F245E24D6AC9D6432C19F</t>
-  </si>
-  <si>
-    <t>31E6C512BD0192E1C21EC9816B76F57524C17AE5CAB0F9A0AC92722CCBD0A1D9</t>
+    <t>619B1A986FBA423A1EC2C356D26822E9C017352D8C7EFDB8D75F1294337883A8</t>
+  </si>
+  <si>
+    <t>73F550E6F4E53A5E1FA161F5A36B05DB49C6D598EA515B7A381C827C424B2E65</t>
+  </si>
+  <si>
+    <t>D723EDF96F44E3D71FE028663FC92B846F63D8D1709ED8DAF1B151E823D33CB6</t>
+  </si>
+  <si>
+    <t>A1EE6A882FB95DA8ED00AD5FF8F2C96349CDE11A6B10B82CEF99C1754EE776F3</t>
+  </si>
+  <si>
+    <t>64F33FC8AECB11647DB7BC1999A1CE223E860F39C07CA00FB0FF69C04C787E38</t>
+  </si>
+  <si>
+    <t>BDE3309444D50752BF355BFC4B9740F607014C9C99449F4C31AEA8990207CAFA</t>
   </si>
   <si>
     <t>B0489188E4677AA5F73140A16323687B3EC4B89EA5CC7F3AF3F9E726EAD9180C</t>
@@ -312,6 +315,18 @@
   </si>
   <si>
     <t>BA0EDDFD6C0779B98AB539492A25FE163B45BA9FDD15DC86EEF82D6B570E85AD</t>
+  </si>
+  <si>
+    <t>580314B6AF5F66FAEF73695FD21ED54BA191206BEF0782A9EDBC5D9FAB634FA3</t>
+  </si>
+  <si>
+    <t>0DB466C28B004726443D0550695C2C16FACD3B53C6C1068D6C82D9ECAD9E61F9</t>
+  </si>
+  <si>
+    <t>5E9C1931E0B5F263697F42A3932EDB21863EBA22D7384C9D7FFC3A5AFEC550E8</t>
+  </si>
+  <si>
+    <t>1540C328F40E5CF48CC439DBA020013D23C3B9D94DE0240EB0830DB400FA1ECC</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -326,8 +341,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -356,40 +371,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -400,43 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,9 +398,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,7 +416,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,7 +453,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -490,7 +461,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -504,9 +483,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,37 +542,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,145 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +741,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,8 +793,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,17 +814,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,165 +833,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,7 +1382,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1462,10 +1477,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1514,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1551,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1573,10 +1588,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1607,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1605,39 +1620,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1666,39 +1681,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1729,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1727,39 +1742,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1790,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1788,39 +1803,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1849,39 +1864,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1910,39 +1925,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1973,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2008,55 +2023,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2085,55 +2100,55 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +2164,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2161,12 +2176,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2184,8 +2199,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2197,12 +2212,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2233,12 +2248,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2269,12 +2284,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2318,65 +2333,65 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2413,21 +2428,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="15" spans="5:6">
@@ -2450,7 +2465,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2473,21 +2488,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="3:4">
@@ -2546,21 +2561,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
@@ -2606,21 +2621,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="15" spans="5:6">
@@ -2662,10 +2677,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2699,10 +2714,10 @@
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/gokceeee/evidence.xlsx
+++ b/gokceeee/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375" tabRatio="500" firstSheet="12" activeTab="22"/>
+    <workbookView windowWidth="24225" windowHeight="12375" tabRatio="500" firstSheet="14" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
   <si>
     <t>TeamName</t>
   </si>
@@ -329,10 +330,22 @@
     <t>1540C328F40E5CF48CC439DBA020013D23C3B9D94DE0240EB0830DB400FA1ECC</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>C7B6927B3D5EA3C3933C23BC2CA4DFED863B2A166B363B39A0669C535F0ABE35</t>
+  </si>
+  <si>
+    <t>11EECF1CB512258A8A56C19081477F6C51B6593D5232911E3D346EA6FC8F61AF</t>
+  </si>
+  <si>
+    <t>DC62DFA7941B6D7345DEC6AD8724B61630BDCE4B69728278FF0FE8C8B8E46ADE</t>
+  </si>
+  <si>
+    <t>9ED9F309B8538FDC54A0985D51C3CA458E41A8545875658D7505B4E12AB5850A</t>
+  </si>
+  <si>
+    <t>AB3D25B920220E2DA3197FAC4AF6C5046C0106683C58F584677CB4BB2B1FD789</t>
+  </si>
+  <si>
+    <t>11B66629156EBFB8579907B48EAF8BB119A108D152034773CFD87DEF86220E82</t>
   </si>
 </sst>
 </file>
@@ -340,10 +353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -371,6 +384,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -379,7 +407,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,17 +418,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,6 +464,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -430,30 +479,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -468,23 +503,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,21 +539,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -542,187 +555,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,11 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,17 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +808,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,152 +846,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,7 +1395,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2199,7 +2212,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2236,7 +2249,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2272,7 +2285,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2284,12 +2297,12 @@
     </row>
     <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2299,6 +2312,38 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
